--- a/biology/Zoologie/Brachypalpoides_lentus/Brachypalpoides_lentus.xlsx
+++ b/biology/Zoologie/Brachypalpoides_lentus/Brachypalpoides_lentus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachypalpoides lentus est une espèce d'insectes diptères brachycères de la famille des Syrphidae, de la sous-famille des Eristalinae, de la tribu des Xylotini.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce syrphe au corps long de 9 à 12 mm, présente un abdomen très aplati[1], approximativement rectangulaire, rouge, terminé par une zone noire ; la tête, le thorax et les pattes sont noirs ; les fémurs de la 3e paire de pattes sont renflés, bordés de courts poils blancs.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce syrphe au corps long de 9 à 12 mm, présente un abdomen très aplati, approximativement rectangulaire, rouge, terminé par une zone noire ; la tête, le thorax et les pattes sont noirs ; les fémurs de la 3e paire de pattes sont renflés, bordés de courts poils blancs.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe occidentale où il n'est pas très commun.
 </t>
@@ -573,7 +589,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes volent de mai à août dans des régions boisées de chênes (Quercus), les larves vivent dans le bois pourri.
 </t>
